--- a/biology/Botanique/Kerriodoxa_elegans/Kerriodoxa_elegans.xlsx
+++ b/biology/Botanique/Kerriodoxa_elegans/Kerriodoxa_elegans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kerriodoxa elegans est une espèce de palmier de la famille des Arecaceae. C'est la seule espèce du genre Kerriodoxa.
 C'est une espèce endémique de la Thaïlande, tout d’abord découverte dans la réserve de Khao Phra Thaeo le 11 mars 1929 et ensuite décrite comme un nouveau genre et une nouvelle espèce en 1983.
@@ -512,7 +524,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Famille : Arecaceae
 Sous-famille : Coryphoideae
